--- a/CASUAL/LA TICC/MANLANGIT, LEONILA.xlsx
+++ b/CASUAL/LA TICC/MANLANGIT, LEONILA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t>PERIOD</t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>UT(1-0-38)</t>
+  </si>
+  <si>
+    <t>UT(2-4-6)</t>
+  </si>
+  <si>
+    <t>UT(0-0-12)</t>
+  </si>
+  <si>
+    <t>UT(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-7-21)</t>
   </si>
 </sst>
 </file>
@@ -3449,9 +3461,9 @@
   <dimension ref="A2:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A80" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3612,7 +3624,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>15.795999999999992</v>
+        <v>11.340000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5121,11 +5133,15 @@
       <c r="A78" s="40">
         <v>44621</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>0.91900000000000004</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -5233,11 +5249,15 @@
       <c r="A83" s="40">
         <v>44774</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="20" t="s">
+        <v>121</v>
+      </c>
       <c r="C83" s="13">
         <v>1.25</v>
       </c>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>1</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13">
@@ -5253,11 +5273,15 @@
       <c r="A84" s="40">
         <v>44805</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13">
@@ -5273,11 +5297,15 @@
       <c r="A85" s="40">
         <v>44835</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C85" s="13">
         <v>1.25</v>
       </c>
-      <c r="D85" s="39"/>
+      <c r="D85" s="39">
+        <v>2.512</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13">
@@ -8991,16 +9019,16 @@
       <c r="B3" s="11">
         <v>27.582999999999998</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3"/>
+      <c r="D3"/>
+      <c r="E3">
+        <v>7</v>
+      </c>
       <c r="F3">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.079</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
